--- a/output/Roboto/article4_Roboto.xlsx
+++ b/output/Roboto/article4_Roboto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,19 +463,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">parsimony. colossal profit </t>
+          <t xml:space="preserve">parsimony. </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>839</v>
+        <v>654</v>
       </c>
       <c r="C2" t="n">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="D2" t="n">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">colossal </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>168</v>
+      </c>
+      <c r="C3" t="n">
+        <v>719</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">profit </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>243</v>
+      </c>
+      <c r="C4" t="n">
+        <v>719</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">masquerades </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>775</v>
+      </c>
+      <c r="C5" t="n">
+        <v>785.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>122</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">benevolent </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>587</v>
+      </c>
+      <c r="C6" t="n">
+        <v>968.1999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bequeathed </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>292</v>
+      </c>
+      <c r="C7" t="n">
+        <v>993.1999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>107</v>
+      </c>
+      <c r="E7" t="n">
         <v>23</v>
       </c>
     </row>
